--- a/GradeDistributionsDB/Summer2015/Output/Summer2015 VM.xlsx
+++ b/GradeDistributionsDB/Summer2015/Output/Summer2015 VM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>Course</t>
   </si>
@@ -43,7 +43,7 @@
     <t>BIMS-485</t>
   </si>
   <si>
-    <t>TEXAS A</t>
+    <t>BUDVITIS A</t>
   </si>
   <si>
     <t>100.00%</t>
@@ -52,21 +52,6 @@
     <t>0.00%</t>
   </si>
   <si>
-    <t>TOTAL S</t>
-  </si>
-  <si>
-    <t>BUDVITIS A</t>
-  </si>
-  <si>
-    <t>DEPARTMENT T</t>
-  </si>
-  <si>
-    <t>VETERINARY M</t>
-  </si>
-  <si>
-    <t>VET I</t>
-  </si>
-  <si>
     <t>VIBS-305</t>
   </si>
   <si>
@@ -124,7 +109,22 @@
     <t>16.67%</t>
   </si>
   <si>
-    <t>VET P</t>
+    <t>VIBS-685</t>
+  </si>
+  <si>
+    <t>88.89%</t>
+  </si>
+  <si>
+    <t>11.11%</t>
+  </si>
+  <si>
+    <t>VIBS-689</t>
+  </si>
+  <si>
+    <t>ABBOTT L</t>
+  </si>
+  <si>
+    <t>85.71%</t>
   </si>
   <si>
     <t>VPAT-645</t>
@@ -148,15 +148,6 @@
     <t>VTPB-405</t>
   </si>
   <si>
-    <t>COLLEGE T</t>
-  </si>
-  <si>
-    <t>55.56%</t>
-  </si>
-  <si>
-    <t>11.11%</t>
-  </si>
-  <si>
     <t>OMRAN M</t>
   </si>
   <si>
@@ -200,9 +191,6 @@
   </si>
   <si>
     <t>VTPP-948</t>
-  </si>
-  <si>
-    <t>VETERINARY P</t>
   </si>
   <si>
     <t>WASSER J</t>
@@ -542,7 +530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,245 +592,163 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="B4" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.304</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>17</v>
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.636</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.304</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="H11" t="s">
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+      <c r="C12" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3.636</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
+      <c r="C15" t="n">
+        <v>2.833</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="18" spans="1:8">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.889</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="20" spans="1:8">
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.833</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="A20" t="s">
         <v>34</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="B21" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C21" t="n">
-        <v>2.833</v>
+        <v>3.857</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -851,67 +757,26 @@
         <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2.833</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" t="n">
-        <v>2.833</v>
-      </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" t="s">
-        <v>35</v>
+      <c r="A23" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="B24" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C24" t="n">
-        <v>2.833</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -920,17 +785,17 @@
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="B27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C27" t="n">
         <v>4</v>
@@ -953,12 +818,12 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="B30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C30" t="n">
         <v>4</v>
@@ -981,24 +846,24 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="B33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3.552</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G33" t="s">
         <v>11</v>
@@ -1009,128 +874,128 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="B36" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C36" t="n">
-        <v>3.444</v>
+        <v>2.348</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G36" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="H36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="B37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" t="n">
-        <v>3.552</v>
-      </c>
-      <c r="D37" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="B42" t="s">
         <v>49</v>
       </c>
-      <c r="F37" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="B40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" t="n">
-        <v>2.348</v>
-      </c>
-      <c r="D40" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="C42" t="n">
+        <v>3.167</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="B45" t="s">
         <v>55</v>
       </c>
-      <c r="G40" t="s">
-        <v>54</v>
-      </c>
-      <c r="H40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="B43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" t="n">
+      <c r="C45" t="n">
         <v>4</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D45" t="s">
         <v>10</v>
       </c>
-      <c r="E43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
-        <v>59</v>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="B46" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C46" t="n">
-        <v>3.167</v>
+        <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
@@ -1139,149 +1004,6 @@
         <v>11</v>
       </c>
       <c r="H46" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="B49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" t="n">
-        <v>4</v>
-      </c>
-      <c r="D49" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="B50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" t="n">
-        <v>4</v>
-      </c>
-      <c r="D50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="B51" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="B52" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" t="n">
-        <v>4</v>
-      </c>
-      <c r="D52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="B53" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" t="n">
-        <v>4</v>
-      </c>
-      <c r="D53" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="B54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" t="n">
-        <v>4</v>
-      </c>
-      <c r="D54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" t="s">
         <v>11</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Summer2015/Output/Summer2015 VM.xlsx
+++ b/GradeDistributionsDB/Summer2015/Output/Summer2015 VM.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>BIMS-485</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>5.36%</t>
   </si>
   <si>
+    <t>11.11%</t>
+  </si>
+  <si>
     <t>VIBS-601</t>
   </si>
   <si>
@@ -82,6 +88,9 @@
     <t>36.36%</t>
   </si>
   <si>
+    <t>15.38%</t>
+  </si>
+  <si>
     <t>VIBS-615</t>
   </si>
   <si>
@@ -91,9 +100,6 @@
     <t>84.62%</t>
   </si>
   <si>
-    <t>15.38%</t>
-  </si>
-  <si>
     <t>VIBS-655</t>
   </si>
   <si>
@@ -113,9 +119,6 @@
   </si>
   <si>
     <t>88.89%</t>
-  </si>
-  <si>
-    <t>11.11%</t>
   </si>
   <si>
     <t>VIBS-689</t>
@@ -231,12 +234,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -530,15 +532,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,448 +565,499 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
         <v>2.304</v>
       </c>
       <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" t="s">
         <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" t="s">
-        <v>13</v>
       </c>
       <c r="C9" t="n">
         <v>3.636</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
         <v>3.846</v>
       </c>
       <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
         <v>24</v>
       </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" t="n">
         <v>2.833</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="B18" t="s">
-        <v>27</v>
       </c>
       <c r="C18" t="n">
         <v>3.889</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" t="n">
         <v>3.857</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" t="n">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" t="n">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" t="n">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" t="n">
         <v>3.552</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" t="n">
         <v>2.348</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" t="s">
         <v>52</v>
       </c>
-      <c r="G36" t="s">
-        <v>51</v>
-      </c>
       <c r="H36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="B39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C39" t="n">
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="B42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" t="n">
         <v>3.167</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45" t="n">
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C46" t="n">
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H46" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I46" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
